--- a/results/mp/logistic/corona/confidence/168/stop-words-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,10 +40,13 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>crude</t>
+    <t>fraud</t>
   </si>
   <si>
     <t>war</t>
@@ -52,33 +55,30 @@
     <t>forced</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>die</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -88,166 +88,163 @@
     <t>avoid</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>cut</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>gt</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>save</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>relief</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>giving</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
-    <t>important</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>data</t>
   </si>
   <si>
     <t>check</t>
   </si>
   <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>corona</t>
+    <t>shop</t>
   </si>
 </sst>
 </file>
@@ -605,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,7 +610,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
         <v>48</v>
@@ -674,13 +671,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8082191780821918</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>236</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>236</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -692,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -724,13 +721,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7941176470588235</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -742,19 +739,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -766,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -774,13 +771,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7894736842105263</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -795,16 +792,16 @@
         <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -816,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -824,13 +821,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7586206896551724</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -842,10 +839,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K6">
         <v>0.8846153846153846</v>
@@ -874,13 +871,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.75</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -892,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>0.8482142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -916,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -924,13 +921,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7333333333333333</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -942,19 +939,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>0.8433420365535248</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L8">
-        <v>323</v>
+        <v>27</v>
       </c>
       <c r="M8">
-        <v>323</v>
+        <v>27</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -966,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -974,13 +971,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7307692307692307</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -992,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8067885117493473</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>309</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>309</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1016,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1024,13 +1021,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7297297297297297</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1042,19 +1039,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K10">
-        <v>0.8297872340425532</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1066,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1074,13 +1071,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5932203389830508</v>
+        <v>0.5661375661375662</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1092,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>0.8207547169811321</v>
+        <v>0.79375</v>
       </c>
       <c r="L11">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="M11">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1116,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1124,13 +1121,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5661375661375662</v>
+        <v>0.5465116279069767</v>
       </c>
       <c r="C12">
-        <v>107</v>
+        <v>282</v>
       </c>
       <c r="D12">
-        <v>107</v>
+        <v>282</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1142,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>0.8181818181818182</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L12">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1166,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1174,13 +1171,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5490196078431373</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1192,31 +1189,31 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <v>18</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13">
+        <v>0.7830188679245284</v>
+      </c>
+      <c r="L13">
+        <v>83</v>
+      </c>
+      <c r="M13">
+        <v>83</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>23</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13">
-        <v>0.8125</v>
-      </c>
-      <c r="L13">
-        <v>104</v>
-      </c>
-      <c r="M13">
-        <v>104</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1224,13 +1221,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5368217054263565</v>
+        <v>0.525</v>
       </c>
       <c r="C14">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1242,19 +1239,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>239</v>
+        <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>0.7906976744186046</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1266,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1274,13 +1271,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.475</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1292,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>0.7875</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L15">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1316,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1324,13 +1321,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4697986577181208</v>
+        <v>0.4899328859060403</v>
       </c>
       <c r="C16">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D16">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1342,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1366,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1374,13 +1371,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.44</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C17">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1392,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>0.7758620689655172</v>
+        <v>0.765625</v>
       </c>
       <c r="L17">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="M17">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1416,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1424,13 +1421,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4363636363636363</v>
+        <v>0.4</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1442,19 +1439,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>0.7746478873239436</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="M18">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1466,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1474,13 +1471,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3454545454545455</v>
+        <v>0.375</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1492,19 +1489,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K19">
-        <v>0.7560975609756098</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L19">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1516,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1524,13 +1521,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3392857142857143</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1542,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K20">
-        <v>0.7301587301587301</v>
+        <v>0.725</v>
       </c>
       <c r="L20">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1566,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1574,13 +1571,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3111111111111111</v>
+        <v>0.3</v>
       </c>
       <c r="C21">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1592,19 +1589,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K21">
-        <v>0.7083333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1616,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1624,13 +1621,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1642,19 +1639,19 @@
         <v>0</v>
       </c>
       <c r="H22">
+        <v>189</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="K22">
-        <v>0.7037037037037037</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1674,13 +1671,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.253968253968254</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="C23">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1692,19 +1689,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>188</v>
+        <v>58</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K23">
-        <v>0.6785714285714286</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1716,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1724,13 +1721,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1742627345844504</v>
+        <v>0.1849865951742627</v>
       </c>
       <c r="C24">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D24">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1742,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K24">
-        <v>0.6735294117647059</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L24">
-        <v>229</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>229</v>
+        <v>23</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1766,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1774,13 +1771,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.08333333333333333</v>
+        <v>0.07666666666666666</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1792,19 +1789,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K25">
-        <v>0.6285714285714286</v>
+        <v>0.6529411764705882</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>222</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>222</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1816,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1824,37 +1821,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01289490651192779</v>
+        <v>0.02070750647109577</v>
       </c>
       <c r="C26">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D26">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E26">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="F26">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>3062</v>
+        <v>1135</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K26">
-        <v>0.625</v>
+        <v>0.64</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1866,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1874,28 +1871,28 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.01263453439401029</v>
+        <v>0.01579626047711154</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D27">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E27">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="F27">
-        <v>0.8200000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>2110</v>
+        <v>3053</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K27">
         <v>0.6170212765957447</v>
@@ -1920,43 +1917,91 @@
       </c>
     </row>
     <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.009854528390427029</v>
+      </c>
+      <c r="C28">
+        <v>21</v>
+      </c>
+      <c r="D28">
+        <v>33</v>
+      </c>
+      <c r="E28">
+        <v>0.36</v>
+      </c>
+      <c r="F28">
+        <v>0.64</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>2110</v>
+      </c>
       <c r="J28" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K28">
-        <v>0.6060606060606061</v>
+        <v>0.6108786610878661</v>
       </c>
       <c r="L28">
+        <v>146</v>
+      </c>
+      <c r="M28">
+        <v>146</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.006313131313131313</v>
+      </c>
+      <c r="C29">
         <v>20</v>
       </c>
-      <c r="M28">
-        <v>20</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="D29">
+        <v>53</v>
+      </c>
+      <c r="E29">
+        <v>0.62</v>
+      </c>
+      <c r="F29">
+        <v>0.38</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>3148</v>
+      </c>
       <c r="J29" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K29">
-        <v>0.6</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="L29">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M29">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1968,21 +2013,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K30">
-        <v>0.5983263598326359</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L30">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1994,21 +2039,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>96</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K31">
-        <v>0.5846153846153846</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L31">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M31">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2020,21 +2065,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K32">
-        <v>0.5714285714285714</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L32">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M32">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2046,21 +2091,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K33">
-        <v>0.550561797752809</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L33">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2072,21 +2117,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K34">
-        <v>0.54</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M34">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2098,21 +2143,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K35">
-        <v>0.5294117647058824</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L35">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2124,21 +2169,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K36">
-        <v>0.4761904761904762</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2150,21 +2195,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K37">
-        <v>0.4444444444444444</v>
+        <v>0.390625</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2176,21 +2221,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K38">
-        <v>0.4246575342465753</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="L38">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M38">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2202,12 +2247,12 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K39">
         <v>0.358974358974359</v>
@@ -2233,16 +2278,16 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K40">
-        <v>0.3220338983050847</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M40">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2254,15 +2299,15 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K41">
-        <v>0.296875</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L41">
         <v>19</v>
@@ -2280,47 +2325,47 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K42">
-        <v>0.2201834862385321</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L42">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M42">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K43">
-        <v>0.1532258064516129</v>
+        <v>0.1243243243243243</v>
       </c>
       <c r="L43">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M43">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2332,84 +2377,32 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>105</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="K44">
-        <v>0.05048076923076923</v>
+        <v>0.01037409619616473</v>
       </c>
       <c r="L44">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M44">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.62</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="45" spans="10:17">
-      <c r="J45" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K45">
-        <v>0.02224694104560623</v>
-      </c>
-      <c r="L45">
-        <v>20</v>
-      </c>
-      <c r="M45">
-        <v>22</v>
-      </c>
-      <c r="N45">
-        <v>0.91</v>
-      </c>
-      <c r="O45">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="46" spans="10:17">
-      <c r="J46" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K46">
-        <v>0.01254705144291092</v>
-      </c>
-      <c r="L46">
-        <v>40</v>
-      </c>
-      <c r="M46">
-        <v>53</v>
-      </c>
-      <c r="N46">
-        <v>0.75</v>
-      </c>
-      <c r="O46">
-        <v>0.25</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46">
         <v>3148</v>
       </c>
     </row>
